--- a/경남소프.xlsx
+++ b/경남소프.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>축제(관광명소) 데이터시트</t>
   </si>
@@ -28,18 +28,12 @@
     <t>.</t>
   </si>
   <si>
-    <t>진주 유등축제</t>
-  </si>
-  <si>
     <t>랜드마크</t>
   </si>
   <si>
     <t>관광 마스코트</t>
   </si>
   <si>
-    <t>진주8경</t>
-  </si>
-  <si>
     <t>경남도시</t>
   </si>
   <si>
@@ -73,89 +67,171 @@
     <t>산청군</t>
   </si>
   <si>
+    <t>사천시</t>
+  </si>
+  <si>
+    <t>거제시</t>
+  </si>
+  <si>
+    <t>고성군</t>
+  </si>
+  <si>
+    <t>김해시</t>
+  </si>
+  <si>
+    <t>합천군</t>
+  </si>
+  <si>
+    <t>음식</t>
+  </si>
+  <si>
+    <t>밀양시</t>
+  </si>
+  <si>
+    <t>진주시</t>
+  </si>
+  <si>
+    <t>창원시</t>
+  </si>
+  <si>
+    <t>함안군</t>
+  </si>
+  <si>
+    <t>의령군</t>
+  </si>
+  <si>
+    <t>거창군</t>
+  </si>
+  <si>
+    <t>남해군</t>
+  </si>
+  <si>
+    <t>하모</t>
+  </si>
+  <si>
+    <t>창녕군</t>
+  </si>
+  <si>
+    <t>진주냉면, 진주비빔밥</t>
+  </si>
+  <si>
+    <t>수승대, 거창Y자형 출렁다리, 월성계곡, 금원산</t>
+  </si>
+  <si>
+    <t>축제번호</t>
+  </si>
+  <si>
+    <t>관련 사이트</t>
+  </si>
+  <si>
+    <t>축제이름</t>
+  </si>
+  <si>
+    <t>축제설명</t>
+  </si>
+  <si>
     <t>양산시</t>
-  </si>
-  <si>
-    <t>사천시</t>
-  </si>
-  <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>고성군</t>
-  </si>
-  <si>
-    <t>김해시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한산대첩축제,한려수도굴축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금원산얼음축제,한마당 대축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산삼축제, 지리산천왕축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙동강유채꽃축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남강유등축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개천예술제,남강유등축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개천예술제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금원산 얼음축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한마당 대축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍물 퍼레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함양군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리산천왕축제</t>
+  </si>
+  <si>
+    <t>산삼축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>단풍,기원제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 느낌</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>합천군</t>
-  </si>
-  <si>
-    <t>음식</t>
-  </si>
-  <si>
-    <t>밀양시</t>
-  </si>
-  <si>
-    <t>진주시</t>
-  </si>
-  <si>
-    <t>창원시</t>
-  </si>
-  <si>
-    <t>함안군</t>
-  </si>
-  <si>
-    <t>의령군</t>
-  </si>
-  <si>
-    <t>거창군</t>
-  </si>
-  <si>
-    <t>남해군</t>
-  </si>
-  <si>
-    <t>하모</t>
-  </si>
-  <si>
-    <t>창녕군</t>
-  </si>
-  <si>
-    <t>진주냉면, 진주비빔밥</t>
-  </si>
-  <si>
-    <t>수승대, 거창Y자형 출렁다리, 월성계곡, 금원산</t>
-  </si>
-  <si>
-    <t>진양호</t>
-  </si>
-  <si>
-    <t>축제번호</t>
-  </si>
-  <si>
-    <t>관련 사이트</t>
-  </si>
-  <si>
-    <t>축제이름</t>
-  </si>
-  <si>
-    <t>축제설명</t>
-  </si>
-  <si>
-    <t>독일마을 맥주축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개천예술제,남강유등축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몽돌야시장,거제섬꽃축제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>황매산철축제,대장경테마</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황매산철축제</t>
+  </si>
+  <si>
+    <t>대장경테마파크대축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방약초축제</t>
+  </si>
+  <si>
+    <t>한방약초축제,산청곶감축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산청곶감축제</t>
   </si>
   <si>
     <r>
@@ -174,48 +250,138 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>북천코스모스메밀꽃축제</t>
+  </si>
+  <si>
+    <t>화개장터 벚꽃축제</t>
+  </si>
+  <si>
+    <t>남해양떼목장</t>
+  </si>
+  <si>
+    <t>남해양떼목장, 나비생태공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비생태공원</t>
+  </si>
+  <si>
+    <t>독일마을 맥주축제</t>
+  </si>
+  <si>
+    <t>독일마을 맥주축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어쇼</t>
+  </si>
+  <si>
+    <t>와룡문화제</t>
+  </si>
+  <si>
+    <t>에어쇼,와룡문화제,수산물축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수산물축제</t>
+  </si>
+  <si>
+    <t>망개떡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의령군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>공룡세계엑스포,옥수수축제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>양산시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통영시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한산대첩축제,한려수도굴축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금원산얼음축제,한마당 대축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어쇼,와룡문화제,수산물축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한방약초축제,산청곶감축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산삼축제, 지리산천왕축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>공룡세계엑스포</t>
+  </si>
+  <si>
+    <t>옥수수축제</t>
+  </si>
+  <si>
+    <t>정암루</t>
+  </si>
+  <si>
+    <t>정암루,도깨비숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비숲</t>
+  </si>
+  <si>
+    <t>강주해바라기축제</t>
+  </si>
+  <si>
+    <t>강주해바라기축제,수박축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박축제</t>
+  </si>
+  <si>
+    <t>창녕군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연지못</t>
+  </si>
+  <si>
+    <t>벚꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>연지못(벚꽃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>),우포늪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우포늪</t>
   </si>
   <si>
     <t>아리랑대축제,얼음골사과축제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원동매화축제,청정미나리축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스키장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>아리랑대축제</t>
+  </si>
+  <si>
+    <t>얼음골사과축제</t>
+  </si>
+  <si>
+    <t>마산국화축제</t>
+  </si>
+  <si>
+    <t>마산국화축제,단감 테마공원축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단감 테마공원축제</t>
+  </si>
+  <si>
+    <t>몽돌야시장</t>
+  </si>
+  <si>
+    <t>몽돌야시장,거제섬꽃축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거제섬꽃축제</t>
   </si>
   <si>
     <r>
@@ -234,40 +400,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>망개떡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강주해바라기축제,수박축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정암루,도깨비숲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙동강유채꽃축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>연지못(벚꽃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>),우포늪</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마산국화축제,단감 테마공원축제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>분청도자기 축제</t>
+  </si>
+  <si>
+    <t>진영단감제</t>
+  </si>
+  <si>
+    <t>가야문화축제</t>
+  </si>
+  <si>
+    <t>스키장</t>
+  </si>
+  <si>
+    <t>스키장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원동매화축제,청정미나리축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원동매화축제</t>
+  </si>
+  <si>
+    <t>청정미나리축제</t>
+  </si>
+  <si>
+    <t>한산대첩축제</t>
+  </si>
+  <si>
+    <t>한려수도굴축제</t>
   </si>
 </sst>
 </file>
@@ -515,7 +677,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -524,7 +686,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -861,8 +1023,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -879,28 +1041,28 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -908,22 +1070,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -931,13 +1093,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -945,11 +1107,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -957,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -968,11 +1130,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -980,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -991,11 +1153,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1003,11 +1167,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1015,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -1026,13 +1190,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -1040,25 +1204,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -1066,11 +1230,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1078,11 +1242,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1090,10 +1254,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1101,11 +1265,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1113,21 +1277,21 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1140,10 +1304,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:G16"/>
+  <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1151,7 +1315,7 @@
     <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="15.09765625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="16.3984375" customWidth="1"/>
@@ -1164,22 +1328,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1187,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1201,8 +1365,8 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1213,16 +1377,22 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1230,48 +1400,417 @@
       <c r="D9">
         <v>12</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D10">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="2">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="D11">
-        <v>161</v>
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D12">
-        <v>162</v>
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="D13">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D27">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D29">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D31">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D32">
+        <v>113</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D34">
+        <v>122</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D36">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D38">
+        <v>142</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D40">
+        <v>152</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D41">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D43">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D44">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D46">
+        <v>172</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/경남소프.xlsx
+++ b/경남소프.xlsx
@@ -20,126 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
-  <x:si>
-    <x:t>원동매화축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>얼음골사과축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아리랑대축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공룡세계엑스포</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가야문화축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한산대첩축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진영단감제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도깨비숲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마산국화축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수산물축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몽돌야시장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청정미나리축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옥수수축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한려수도굴축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거제섬꽃축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수박축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축제정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관광 마스코트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관련 사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축제번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>랜드마크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마스코트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남도시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축제설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축제이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남강유등축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개천예술제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한마당 대축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풍물 퍼레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지리산천왕축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한방약초축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산삼축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황매산철축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남해양떼목장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>와룡문화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산청곶감축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나비생태공원</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
+  <x:si>
+    <x:t>김해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함안</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창녕</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -168,133 +63,58 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>마산국화축제,단감 테마공원축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벚꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남해군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정암루</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스키장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창녕군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어쇼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망개떡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우포늪</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통영시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거창군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연지못</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의령군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진주성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창원시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관광지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산청군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거제시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하동군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김해시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>논개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금원산 얼음축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진주냉면, 진주비빔밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낙동강유채꽃축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대장경테마파크대축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독일마을 맥주축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화개장터 벚꽃축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북천코스모스메밀꽃축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정암루,도깨비숲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강주해바라기축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단감 테마공원축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분청도자기 축제</x:t>
+    <x:t>통영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공룡세계엑스포,옥수수축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축제(관광명소) 데이터시트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한산대첩축제,한려수도굴축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개천예술제,남강유등축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황매산철축제,대장경테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산삼축제, 지리산천왕축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한방약초축제,산청곶감축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남해양떼목장, 나비생태공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원동매화축제,청정미나리축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아리랑대축제,얼음골사과축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어쇼,와룡문화제,수산물축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몽돌야시장,거제섬꽃축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금원산얼음축제,한마당 대축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강주해바라기축제,수박축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거제</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -310,6 +130,261 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>벚꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연지못</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진주성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의령군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스키장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망개떡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정암루</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어쇼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우포늪</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통영시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창녕군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거창군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창원시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남해군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>논개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산청군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하동군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관광지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김해시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거제시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마산국화축제,단감 테마공원축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수승대, 거창Y자형 출렁다리, 월성계곡, 금원산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정암루,도깨비숲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분청도자기 축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북천코스모스메밀꽃축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화개장터 벚꽃축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강주해바라기축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독일마을 맥주축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단감 테마공원축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대장경테마파크대축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금원산 얼음축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진주냉면, 진주비빔밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낙동강유채꽃축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원동매화축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아리랑대축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공룡세계엑스포</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수산물축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한산대첩축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도깨비숲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진영단감제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얼음골사과축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마산국화축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가야문화축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몽돌야시장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청정미나리축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수박축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관련 사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지리산천왕축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남도시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축제이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옥수수축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마스코트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한마당 대축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한방약초축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산삼축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풍물 퍼레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황매산철축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남해양떼목장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개천예술제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축제번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거제섬꽃축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축제설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>와룡문화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축제정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한려수도굴축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산청곶감축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남강유등축제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나비생태공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>랜드마크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관광 마스코트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호(좌표)</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:t>연지못(벚꽃</x:t>
     </x:r>
@@ -323,52 +398,34 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>축제(관광명소) 데이터시트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산삼축제, 지리산천왕축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한산대첩축제,한려수도굴축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한방약초축제,산청곶감축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황매산철축제,대장경테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개천예술제,남강유등축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공룡세계엑스포,옥수수축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원동매화축제,청정미나리축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금원산얼음축제,한마당 대축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아리랑대축제,얼음골사과축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남해양떼목장, 나비생태공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몽돌야시장,거제섬꽃축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강주해바라기축제,수박축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어쇼,와룡문화제,수산물축제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수승대, 거창Y자형 출렁다리, 월성계곡, 금원산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호(좌표)</x:t>
+    <x:t>거창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의령</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀘스트목표지역</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -489,7 +546,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -510,7 +566,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -531,7 +586,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -562,7 +616,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -593,7 +646,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -671,7 +723,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -706,7 +757,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -741,7 +791,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -786,7 +835,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -830,7 +878,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1235,283 +1282,341 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A2:I20"/>
+  <x:dimension ref="A2:J20"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="21.59765625" style="3" customWidth="1"/>
-    <x:col min="5" max="5" width="15.09765625" style="3" customWidth="1"/>
-    <x:col min="6" max="6" width="41.19921875" style="3" customWidth="1"/>
-    <x:col min="7" max="7" width="38.09765625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="39.69921875" style="3" customWidth="1"/>
-    <x:col min="10" max="10" width="19.3984375" style="3" customWidth="1"/>
-    <x:col min="11" max="11" width="20.3984375" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="17.75" customWidth="1"/>
+    <x:col min="4" max="4" width="21.59765625" style="3" customWidth="1"/>
+    <x:col min="6" max="6" width="15.09765625" style="3" customWidth="1"/>
+    <x:col min="7" max="7" width="41.19921875" style="3" customWidth="1"/>
+    <x:col min="8" max="8" width="38.09765625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="39.69921875" style="3" customWidth="1"/>
+    <x:col min="11" max="11" width="19.3984375" style="3" customWidth="1"/>
+    <x:col min="12" max="12" width="20.3984375" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H2" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="I2" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
       <x:c r="A3" s="2">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>71</x:v>
+      <x:c r="B3" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F3" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H3" s="3" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I3" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="2">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B4" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G4" s="4" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
+      <x:c r="H4" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="2">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F5" s="4"/>
-      <x:c r="G5" s="4" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
+      <x:c r="B5" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G5" s="4"/>
+      <x:c r="H5" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="2">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G6" s="4" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
+      <x:c r="B6" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H6" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="2">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F7" s="5"/>
-      <x:c r="G7" s="4" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
+      <x:c r="B7" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G7" s="5"/>
+      <x:c r="H7" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="2">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G8" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
+      <x:c r="B8" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="2">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="3" t="s">
+      <x:c r="B9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F9" s="4" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="G9" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H9" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="2">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F10" s="4"/>
-      <x:c r="G10" s="4" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7">
+      <x:c r="B10" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G10" s="4"/>
+      <x:c r="H10" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="2">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G11" s="4" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
+      <x:c r="B11" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
       <x:c r="A12" s="2">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F12" s="4" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H12" s="4" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
+      <x:c r="B12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
       <x:c r="A13" s="2">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F13" s="4"/>
-      <x:c r="G13" s="4" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
+      <x:c r="B13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G13" s="4"/>
+      <x:c r="H13" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
       <x:c r="A14" s="2">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B14" s="4" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F14" s="4" t="s">
-        <x:v>86</x:v>
+      <x:c r="B14" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" s="4" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G14" s="4" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H14" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
       <x:c r="A15" s="2">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F15" s="4"/>
-      <x:c r="G15" s="4" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7">
+      <x:c r="B15" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G15" s="4"/>
+      <x:c r="H15" s="4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
       <x:c r="A16" s="2">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F16" s="4"/>
-      <x:c r="G16" s="4" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7">
+      <x:c r="B16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G16" s="4"/>
+      <x:c r="H16" s="4" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
       <x:c r="A17" s="2">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G17" s="4" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7">
+      <x:c r="B17" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H17" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
       <x:c r="A18" s="2">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F18" s="5"/>
-      <x:c r="G18" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:7">
+      <x:c r="B18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G18" s="5"/>
+      <x:c r="H18" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
       <x:c r="A19" s="2">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B19" s="4" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F19" s="4" t="s">
-        <x:v>48</x:v>
+      <x:c r="B19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C19" s="4" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>94</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:7">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H19" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
       <x:c r="A20" s="2">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B20" s="4" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G20" s="4" t="s">
-        <x:v>89</x:v>
+      <x:c r="B20" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C20" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H20" s="4" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1542,27 +1647,27 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">
@@ -1570,13 +1675,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:7">
@@ -1585,10 +1690,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5">
@@ -1597,7 +1702,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5">
@@ -1605,13 +1710,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="1">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:6">
@@ -1620,10 +1725,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
@@ -1631,13 +1736,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="1">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:6">
@@ -1646,10 +1751,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5">
@@ -1657,13 +1762,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D12" s="1">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5">
@@ -1672,7 +1777,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5">
@@ -1680,13 +1785,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="1">
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5">
@@ -1695,7 +1800,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5">
@@ -1703,13 +1808,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D16" s="1">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="4:5">
@@ -1717,7 +1822,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5">
@@ -1731,7 +1836,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="4:5">
@@ -1739,7 +1844,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="4:5">
@@ -1747,7 +1852,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5">
@@ -1755,13 +1860,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="1">
         <x:v>71</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:5">
@@ -1769,7 +1874,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="4:5">
@@ -1777,7 +1882,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
@@ -1785,13 +1890,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D24" s="1">
         <x:v>81</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="4:5">
@@ -1799,7 +1904,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5">
@@ -1807,13 +1912,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D26" s="1">
         <x:v>91</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="4:5">
@@ -1821,7 +1926,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5">
@@ -1829,13 +1934,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D28" s="1">
         <x:v>101</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="4:5">
@@ -1843,7 +1948,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:6">
@@ -1851,16 +1956,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D30" s="1">
         <x:v>111</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F30" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="4:5">
@@ -1868,7 +1973,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:5">
@@ -1876,7 +1981,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E32" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:5">
@@ -1884,13 +1989,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D33" s="1">
         <x:v>121</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="4:5">
@@ -1898,7 +2003,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5">
@@ -1906,13 +2011,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D35" s="1">
         <x:v>131</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="4:5">
@@ -1920,7 +2025,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:5">
@@ -1928,13 +2033,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D37" s="1">
         <x:v>141</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="4:5">
@@ -1942,7 +2047,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:5">
@@ -1950,13 +2055,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D39" s="1">
         <x:v>151</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="4:5">
@@ -1964,7 +2069,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="4:5">
@@ -1972,7 +2077,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:5">
@@ -1980,13 +2085,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D42" s="1">
         <x:v>161</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="4:5">
@@ -1994,7 +2099,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="4:5">
@@ -2002,7 +2107,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="2:5">
@@ -2010,13 +2115,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D45" s="1">
         <x:v>171</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="4:5">
@@ -2024,7 +2129,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/경남소프.xlsx
+++ b/경남소프.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20232" windowHeight="8220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20232" windowHeight="8220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +658,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,8 +1654,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1820,7 +1823,7 @@
       <c r="D15" s="3">
         <v>42</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>100</v>
       </c>
     </row>
